--- a/biology/Histoire de la zoologie et de la botanique/Ulysses_Sherman_Grant/Ulysses_Sherman_Grant.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ulysses_Sherman_Grant/Ulysses_Sherman_Grant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ulysses Sherman Grant est un géologue et un paléoconchyliologiste[2] américain, né le 14 février 1867 à Moline (Illinois) et mort le 22 septembre 1932 à Evanston (Illinois).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulysses Sherman Grant est un géologue et un paléoconchyliologiste américain, né le 14 février 1867 à Moline (Illinois) et mort le 22 septembre 1932 à Evanston (Illinois).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son Bachelor of Sciences (1888) à l’université du Minnesota et son doctorat (1893) à université Johns-Hopkins. Assistant géologue pour l’État du Minnesota (1893-1894), il enseigne la géologie à l’université du Minnesota. De 1899 à 1907, il est géologue auprès du service de recherche d’histoire naturelle du Wisconsin, de 1904 à 1925, il occupe une fonction similaire auprès du service fédéral de recherche géologique et, de 1906 à 1920, du service de recherche géologique de l’Illinois. Membre de l’American Society of Geology, il y assure le rôle de directeur de publication.
 Grant étudie les ressources pétrolières et minières. Il s’intéresse aussi aux mollusques d’Alaska.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Robert Tucker Abbott (1974). American Malacologists. A National Register of Professional and Amateur Malacologists and Private Shell Collectors and Biographies of Early American Mollusk Workers Born Between 1618 and 1900, American Malacologists (Falls Church, Virginie) : iv + 494 p.  (ISBN 0-913792-02-0)</t>
         </is>
